--- a/data/pca/factorExposure/factorExposure_2015-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01931810124061697</v>
+        <v>0.01169405331516895</v>
       </c>
       <c r="C2">
-        <v>0.02125412936660841</v>
+        <v>-0.05301940035023902</v>
       </c>
       <c r="D2">
-        <v>0.108517228932402</v>
+        <v>-0.1277340398312996</v>
       </c>
       <c r="E2">
-        <v>-0.01379213161828592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0258676325037642</v>
+      </c>
+      <c r="F2">
+        <v>-0.03223395381591797</v>
+      </c>
+      <c r="G2">
+        <v>-0.1182061947099322</v>
+      </c>
+      <c r="H2">
+        <v>0.08818270539692663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04256630825934947</v>
+        <v>0.01776122566097985</v>
       </c>
       <c r="C4">
-        <v>0.07267063875425304</v>
+        <v>-0.1070770324946713</v>
       </c>
       <c r="D4">
-        <v>0.1263824842092712</v>
+        <v>-0.1323887078954455</v>
       </c>
       <c r="E4">
-        <v>-0.08811747941528028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01363444776365241</v>
+      </c>
+      <c r="F4">
+        <v>-0.09231848087651968</v>
+      </c>
+      <c r="G4">
+        <v>-0.00382354658734783</v>
+      </c>
+      <c r="H4">
+        <v>0.04652931758389241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02116386756779878</v>
+        <v>0.02788279900712426</v>
       </c>
       <c r="C6">
-        <v>0.01200897229471136</v>
+        <v>-0.03570342844271283</v>
       </c>
       <c r="D6">
-        <v>0.1397592674020994</v>
+        <v>-0.1225994104356015</v>
       </c>
       <c r="E6">
-        <v>-0.0414715998483213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06360051723050954</v>
+      </c>
+      <c r="F6">
+        <v>-0.0452203011976377</v>
+      </c>
+      <c r="G6">
+        <v>0.01003156262899827</v>
+      </c>
+      <c r="H6">
+        <v>0.0392836123409941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002258126069470713</v>
+        <v>0.008301095125826555</v>
       </c>
       <c r="C7">
-        <v>0.02339277140535613</v>
+        <v>-0.03875781507395634</v>
       </c>
       <c r="D7">
-        <v>0.1124406076183871</v>
+        <v>-0.09707903935086734</v>
       </c>
       <c r="E7">
-        <v>-0.008463415720873486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05607516819213408</v>
+      </c>
+      <c r="F7">
+        <v>-0.01018778696379605</v>
+      </c>
+      <c r="G7">
+        <v>0.0170360627539599</v>
+      </c>
+      <c r="H7">
+        <v>0.07767879222829202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.003485029360907507</v>
+        <v>-0.008576011767122367</v>
       </c>
       <c r="C8">
-        <v>0.02617836538827075</v>
+        <v>-0.03702565942062275</v>
       </c>
       <c r="D8">
-        <v>0.07682664230713299</v>
+        <v>-0.07420404678000588</v>
       </c>
       <c r="E8">
-        <v>-0.02258430278484325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04043389267031162</v>
+      </c>
+      <c r="F8">
+        <v>-0.04755443387816773</v>
+      </c>
+      <c r="G8">
+        <v>-0.06196526133534863</v>
+      </c>
+      <c r="H8">
+        <v>0.01063600673607855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03479010324508434</v>
+        <v>0.01263401313860377</v>
       </c>
       <c r="C9">
-        <v>0.06227776475677699</v>
+        <v>-0.08882850079737262</v>
       </c>
       <c r="D9">
-        <v>0.1279614236044084</v>
+        <v>-0.1135422219521426</v>
       </c>
       <c r="E9">
-        <v>-0.07205626365380938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01467323004323801</v>
+      </c>
+      <c r="F9">
+        <v>-0.06105771078793751</v>
+      </c>
+      <c r="G9">
+        <v>0.01695916278999609</v>
+      </c>
+      <c r="H9">
+        <v>0.0561934581362396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1777566930761249</v>
+        <v>0.2418437378641491</v>
       </c>
       <c r="C10">
-        <v>-0.1657710564739279</v>
+        <v>0.088091246562533</v>
       </c>
       <c r="D10">
-        <v>-6.697172503941095e-05</v>
+        <v>0.003871370823280939</v>
       </c>
       <c r="E10">
-        <v>-0.04310428818485611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01044639452178879</v>
+      </c>
+      <c r="F10">
+        <v>-0.04252390018933944</v>
+      </c>
+      <c r="G10">
+        <v>-0.0004027560748275005</v>
+      </c>
+      <c r="H10">
+        <v>-0.03227734282597162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01871025231254292</v>
+        <v>0.009468653508102068</v>
       </c>
       <c r="C11">
-        <v>0.04171078067962643</v>
+        <v>-0.05750803699604282</v>
       </c>
       <c r="D11">
-        <v>0.04513251631870695</v>
+        <v>-0.04138826946415223</v>
       </c>
       <c r="E11">
-        <v>0.01708506680762584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02075368702750063</v>
+      </c>
+      <c r="F11">
+        <v>0.01443583467667058</v>
+      </c>
+      <c r="G11">
+        <v>0.01470450744745084</v>
+      </c>
+      <c r="H11">
+        <v>0.04635787013664248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01872243771408631</v>
+        <v>0.009562983827970531</v>
       </c>
       <c r="C12">
-        <v>0.04106088954362749</v>
+        <v>-0.05062469780478521</v>
       </c>
       <c r="D12">
-        <v>0.05921671546656469</v>
+        <v>-0.04545930664537504</v>
       </c>
       <c r="E12">
-        <v>0.005478569769013218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01598617388039448</v>
+      </c>
+      <c r="F12">
+        <v>0.016932626141458</v>
+      </c>
+      <c r="G12">
+        <v>0.03310984549775876</v>
+      </c>
+      <c r="H12">
+        <v>0.06233467601715846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00322952970611042</v>
+        <v>-0.002653001189866106</v>
       </c>
       <c r="C13">
-        <v>0.02293688806607364</v>
+        <v>-0.04876165877359259</v>
       </c>
       <c r="D13">
-        <v>0.1383586305917579</v>
+        <v>-0.1456485592102718</v>
       </c>
       <c r="E13">
-        <v>-0.03904831260564401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04238220121632064</v>
+      </c>
+      <c r="F13">
+        <v>-0.03355247539198015</v>
+      </c>
+      <c r="G13">
+        <v>-0.01370037846654264</v>
+      </c>
+      <c r="H13">
+        <v>0.07503957601411626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005902626027669304</v>
+        <v>0.001414225562635558</v>
       </c>
       <c r="C14">
-        <v>0.015855592643563</v>
+        <v>-0.03142838095560153</v>
       </c>
       <c r="D14">
-        <v>0.09594184938090358</v>
+        <v>-0.1013737523263923</v>
       </c>
       <c r="E14">
-        <v>-0.01572926701486223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05312119648142682</v>
+      </c>
+      <c r="F14">
+        <v>-0.03620147577191526</v>
+      </c>
+      <c r="G14">
+        <v>-0.001590038542874032</v>
+      </c>
+      <c r="H14">
+        <v>0.1307152160148825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003057732102790214</v>
+        <v>-0.002523024286728479</v>
       </c>
       <c r="C15">
-        <v>0.01060916673626182</v>
+        <v>-0.02710307200208049</v>
       </c>
       <c r="D15">
-        <v>0.03244541114044926</v>
+        <v>-0.05987833270534754</v>
       </c>
       <c r="E15">
-        <v>0.002143420170459262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01237933832515022</v>
+      </c>
+      <c r="F15">
+        <v>-0.007590328473801182</v>
+      </c>
+      <c r="G15">
+        <v>-0.0145129925766333</v>
+      </c>
+      <c r="H15">
+        <v>0.03854770316120942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01779860290624009</v>
+        <v>0.008916157448667139</v>
       </c>
       <c r="C16">
-        <v>0.03707898597651728</v>
+        <v>-0.05070328817621352</v>
       </c>
       <c r="D16">
-        <v>0.05233240142752426</v>
+        <v>-0.04371969863940757</v>
       </c>
       <c r="E16">
-        <v>0.007264398179550331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02292085647635866</v>
+      </c>
+      <c r="F16">
+        <v>0.008942203458294601</v>
+      </c>
+      <c r="G16">
+        <v>0.02447182450309408</v>
+      </c>
+      <c r="H16">
+        <v>0.04267045725629581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003124927529235502</v>
+        <v>-0.0004079737798528849</v>
       </c>
       <c r="C19">
-        <v>0.01869286706334032</v>
+        <v>-0.01756075322481388</v>
       </c>
       <c r="D19">
-        <v>0.1022360738987415</v>
+        <v>-0.0637641230365719</v>
       </c>
       <c r="E19">
-        <v>-0.04909360031836602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01040158449581378</v>
+      </c>
+      <c r="F19">
+        <v>-0.01671863480399641</v>
+      </c>
+      <c r="G19">
+        <v>-0.01082954885756749</v>
+      </c>
+      <c r="H19">
+        <v>0.05757830212875973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002070988207361859</v>
+        <v>0.004232868864518582</v>
       </c>
       <c r="C20">
-        <v>0.02484450392632862</v>
+        <v>-0.0428525916577497</v>
       </c>
       <c r="D20">
-        <v>0.08372070776061137</v>
+        <v>-0.09088423129852762</v>
       </c>
       <c r="E20">
-        <v>-0.03501744442588353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02569940481051387</v>
+      </c>
+      <c r="F20">
+        <v>-0.027127857674423</v>
+      </c>
+      <c r="G20">
+        <v>0.01526942016752231</v>
+      </c>
+      <c r="H20">
+        <v>0.05561692769842377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00514950905376212</v>
+        <v>0.003876555393483705</v>
       </c>
       <c r="C21">
-        <v>0.02706672675259848</v>
+        <v>-0.04572497449505836</v>
       </c>
       <c r="D21">
-        <v>0.1619615566832219</v>
+        <v>-0.1317789264148823</v>
       </c>
       <c r="E21">
-        <v>-0.08555951440322965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03382165420574905</v>
+      </c>
+      <c r="F21">
+        <v>-0.09853323340914499</v>
+      </c>
+      <c r="G21">
+        <v>-0.01160147031319599</v>
+      </c>
+      <c r="H21">
+        <v>0.1944576329348807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001236228278586446</v>
+        <v>-0.01356358484209046</v>
       </c>
       <c r="C22">
-        <v>0.06312530298026814</v>
+        <v>-0.08852986535098785</v>
       </c>
       <c r="D22">
-        <v>0.2506310313154508</v>
+        <v>-0.2529199234737964</v>
       </c>
       <c r="E22">
-        <v>0.01082152203951538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06399468352622195</v>
+      </c>
+      <c r="F22">
+        <v>-0.002490582204233213</v>
+      </c>
+      <c r="G22">
+        <v>-0.4142693953885964</v>
+      </c>
+      <c r="H22">
+        <v>-0.3801186942401725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0009553256287249345</v>
+        <v>-0.01034323200048529</v>
       </c>
       <c r="C23">
-        <v>0.06362415889612807</v>
+        <v>-0.09021951265335922</v>
       </c>
       <c r="D23">
-        <v>0.2500312995083844</v>
+        <v>-0.2555627725484665</v>
       </c>
       <c r="E23">
-        <v>0.01069294177179534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05926022129184132</v>
+      </c>
+      <c r="F23">
+        <v>-0.005837470980628398</v>
+      </c>
+      <c r="G23">
+        <v>-0.4016086276148839</v>
+      </c>
+      <c r="H23">
+        <v>-0.3655589105598897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02312928963996861</v>
+        <v>0.009349817950016661</v>
       </c>
       <c r="C24">
-        <v>0.05702182701633218</v>
+        <v>-0.06702189191159005</v>
       </c>
       <c r="D24">
-        <v>0.06218983832853867</v>
+        <v>-0.04705686692951912</v>
       </c>
       <c r="E24">
-        <v>0.0037528599397645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02971143119071989</v>
+      </c>
+      <c r="F24">
+        <v>0.004560566436828039</v>
+      </c>
+      <c r="G24">
+        <v>0.01394746787973264</v>
+      </c>
+      <c r="H24">
+        <v>0.06890471738637211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02418376731599992</v>
+        <v>0.01349274906759103</v>
       </c>
       <c r="C25">
-        <v>0.04863813767338696</v>
+        <v>-0.0613531152416324</v>
       </c>
       <c r="D25">
-        <v>0.05836534994445999</v>
+        <v>-0.04864058223662124</v>
       </c>
       <c r="E25">
-        <v>-0.002645865526074474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0148757357485522</v>
+      </c>
+      <c r="F25">
+        <v>0.006334470005881959</v>
+      </c>
+      <c r="G25">
+        <v>0.015744710053854</v>
+      </c>
+      <c r="H25">
+        <v>0.0340211521452362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006088465275981724</v>
+        <v>0.01424411651875497</v>
       </c>
       <c r="C26">
-        <v>0.01493046958117388</v>
+        <v>-0.02741574991263294</v>
       </c>
       <c r="D26">
-        <v>0.08704885890561981</v>
+        <v>-0.06933346814711959</v>
       </c>
       <c r="E26">
-        <v>-0.02286058532942089</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04506280161337783</v>
+      </c>
+      <c r="F26">
+        <v>-0.04370052670586788</v>
+      </c>
+      <c r="G26">
+        <v>0.01087881041838766</v>
+      </c>
+      <c r="H26">
+        <v>0.09681754852614569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2630467577907168</v>
+        <v>0.3209425992340417</v>
       </c>
       <c r="C28">
-        <v>-0.1937140595252208</v>
+        <v>0.08803238880607005</v>
       </c>
       <c r="D28">
-        <v>0.01613034125187662</v>
+        <v>0.01788370468687428</v>
       </c>
       <c r="E28">
-        <v>-0.05705789534368607</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05062794668164888</v>
+      </c>
+      <c r="F28">
+        <v>-0.04510339507334234</v>
+      </c>
+      <c r="G28">
+        <v>-0.05292263692651205</v>
+      </c>
+      <c r="H28">
+        <v>-0.003100397842807743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002295928588316109</v>
+        <v>0.0003782272410145165</v>
       </c>
       <c r="C29">
-        <v>0.02073767578639614</v>
+        <v>-0.03702293293370264</v>
       </c>
       <c r="D29">
-        <v>0.0965604141877492</v>
+        <v>-0.103808293322134</v>
       </c>
       <c r="E29">
-        <v>-0.02130986874999244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.06015346434336166</v>
+      </c>
+      <c r="F29">
+        <v>-0.04026798817338029</v>
+      </c>
+      <c r="G29">
+        <v>0.01205132810998616</v>
+      </c>
+      <c r="H29">
+        <v>0.1356493398404928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02226125976398976</v>
+        <v>0.01372047585188983</v>
       </c>
       <c r="C30">
-        <v>0.0590564774769565</v>
+        <v>-0.08801323107035078</v>
       </c>
       <c r="D30">
-        <v>0.164495711636794</v>
+        <v>-0.1459433837320235</v>
       </c>
       <c r="E30">
-        <v>-0.02947178234095401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05724917151766512</v>
+      </c>
+      <c r="F30">
+        <v>-0.02715733334985262</v>
+      </c>
+      <c r="G30">
+        <v>-0.02069713255493584</v>
+      </c>
+      <c r="H30">
+        <v>0.0458264944174482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03597631922323854</v>
+        <v>0.00766254976402343</v>
       </c>
       <c r="C31">
-        <v>0.08531725552148614</v>
+        <v>-0.09467966317164546</v>
       </c>
       <c r="D31">
-        <v>0.0680894004923024</v>
+        <v>-0.03988681773318114</v>
       </c>
       <c r="E31">
-        <v>-0.01564087947362394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02047170970769102</v>
+      </c>
+      <c r="F31">
+        <v>-0.01450900697317961</v>
+      </c>
+      <c r="G31">
+        <v>0.003520189029389025</v>
+      </c>
+      <c r="H31">
+        <v>0.04611383188881567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01657774191566717</v>
+        <v>0.008650733557394407</v>
       </c>
       <c r="C32">
-        <v>0.03296967771455309</v>
+        <v>-0.04926177168075109</v>
       </c>
       <c r="D32">
-        <v>0.0939979940060046</v>
+        <v>-0.1064322663963976</v>
       </c>
       <c r="E32">
-        <v>-0.07063505280935291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003546368629251139</v>
+      </c>
+      <c r="F32">
+        <v>-0.05286470476343107</v>
+      </c>
+      <c r="G32">
+        <v>-0.01286146549277318</v>
+      </c>
+      <c r="H32">
+        <v>0.05229662549654174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00883760572605344</v>
+        <v>0.005485647091399697</v>
       </c>
       <c r="C33">
-        <v>0.04068351529662127</v>
+        <v>-0.06090316591815095</v>
       </c>
       <c r="D33">
-        <v>0.1384236657095197</v>
+        <v>-0.1206880407821492</v>
       </c>
       <c r="E33">
-        <v>-0.04547925720577256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02945677929149016</v>
+      </c>
+      <c r="F33">
+        <v>-0.0270442621744556</v>
+      </c>
+      <c r="G33">
+        <v>0.006833069574045167</v>
+      </c>
+      <c r="H33">
+        <v>0.06345663324319954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02045692106953769</v>
+        <v>0.007134377714034956</v>
       </c>
       <c r="C34">
-        <v>0.05858251989402581</v>
+        <v>-0.06202901583399363</v>
       </c>
       <c r="D34">
-        <v>0.05256805927585452</v>
+        <v>-0.02801143705487169</v>
       </c>
       <c r="E34">
-        <v>0.04549032784227077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0294711619985403</v>
+      </c>
+      <c r="F34">
+        <v>0.03971594340609379</v>
+      </c>
+      <c r="G34">
+        <v>0.01918898517527008</v>
+      </c>
+      <c r="H34">
+        <v>0.05095744900393543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00231473159697866</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01104640151318425</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03364181804053847</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.00501006308741995</v>
+      </c>
+      <c r="F35">
+        <v>-0.01790124060362579</v>
+      </c>
+      <c r="G35">
+        <v>0.007007103106597825</v>
+      </c>
+      <c r="H35">
+        <v>0.05096889900071676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006572249556696893</v>
+        <v>0.01082408267375618</v>
       </c>
       <c r="C36">
-        <v>0.006041374469835822</v>
+        <v>-0.02258029698189493</v>
       </c>
       <c r="D36">
-        <v>0.0862626817198435</v>
+        <v>-0.0761821547780669</v>
       </c>
       <c r="E36">
-        <v>-0.04778980247102708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02926476389876685</v>
+      </c>
+      <c r="F36">
+        <v>-0.04991913434261275</v>
+      </c>
+      <c r="G36">
+        <v>0.002257360471772849</v>
+      </c>
+      <c r="H36">
+        <v>0.06498182278475009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005676771666322245</v>
+        <v>0.01173784335760387</v>
       </c>
       <c r="C38">
-        <v>0.006549256621757865</v>
+        <v>-0.02365329789123171</v>
       </c>
       <c r="D38">
-        <v>0.09110280975513599</v>
+        <v>-0.08753412989425452</v>
       </c>
       <c r="E38">
-        <v>-0.01281741031534744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.006860441304813152</v>
+      </c>
+      <c r="F38">
+        <v>-0.001647877998909498</v>
+      </c>
+      <c r="G38">
+        <v>-0.01702503485123423</v>
+      </c>
+      <c r="H38">
+        <v>0.06740343535908652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01489491987063944</v>
+        <v>0.002877541586317768</v>
       </c>
       <c r="C39">
-        <v>0.05735020994557942</v>
+        <v>-0.07741284074764787</v>
       </c>
       <c r="D39">
-        <v>0.1117096086531742</v>
+        <v>-0.09280682392890971</v>
       </c>
       <c r="E39">
-        <v>0.01058806468148245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05457784909077485</v>
+      </c>
+      <c r="F39">
+        <v>0.004936407430340055</v>
+      </c>
+      <c r="G39">
+        <v>0.01930978665951427</v>
+      </c>
+      <c r="H39">
+        <v>0.09439218460797394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01566680758690611</v>
+        <v>0.01323594899600612</v>
       </c>
       <c r="C40">
-        <v>0.02395892843504158</v>
+        <v>-0.03800297043792123</v>
       </c>
       <c r="D40">
-        <v>0.1149573152140528</v>
+        <v>-0.09357550647802784</v>
       </c>
       <c r="E40">
-        <v>0.005702659854427011</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04244287959188169</v>
+      </c>
+      <c r="F40">
+        <v>0.01346962299155019</v>
+      </c>
+      <c r="G40">
+        <v>-0.06021617750163362</v>
+      </c>
+      <c r="H40">
+        <v>0.1065866880844653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009419574728501591</v>
+        <v>0.01543395164717796</v>
       </c>
       <c r="C41">
-        <v>0.004184470979108171</v>
+        <v>-0.01972826669320708</v>
       </c>
       <c r="D41">
-        <v>0.0448937658629411</v>
+        <v>-0.04878301716652592</v>
       </c>
       <c r="E41">
-        <v>-0.03372604871202364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.005817339193142334</v>
+      </c>
+      <c r="F41">
+        <v>-0.02479006791255136</v>
+      </c>
+      <c r="G41">
+        <v>-0.0002580140014598559</v>
+      </c>
+      <c r="H41">
+        <v>0.04657478062763823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001474276048888816</v>
+        <v>0.008148976701621159</v>
       </c>
       <c r="C43">
-        <v>0.004601684551667023</v>
+        <v>-0.0163182385306331</v>
       </c>
       <c r="D43">
-        <v>0.05464534118489899</v>
+        <v>-0.05302693319509511</v>
       </c>
       <c r="E43">
-        <v>-0.02403829203419505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01031658127865777</v>
+      </c>
+      <c r="F43">
+        <v>-0.02108301211321599</v>
+      </c>
+      <c r="G43">
+        <v>-0.003033071243782944</v>
+      </c>
+      <c r="H43">
+        <v>0.05574425412307563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01657173853355553</v>
+        <v>0.01160579666439475</v>
       </c>
       <c r="C44">
-        <v>0.02491624217127807</v>
+        <v>-0.04963241498512613</v>
       </c>
       <c r="D44">
-        <v>0.1011286524189612</v>
+        <v>-0.1065344404139758</v>
       </c>
       <c r="E44">
-        <v>-0.05072140899158141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03885147422944472</v>
+      </c>
+      <c r="F44">
+        <v>-0.03683564060431331</v>
+      </c>
+      <c r="G44">
+        <v>-0.02662424949581474</v>
+      </c>
+      <c r="H44">
+        <v>0.05629145957565061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004503298791774099</v>
+        <v>-0.0007415232514426862</v>
       </c>
       <c r="C46">
-        <v>0.02864498582472903</v>
+        <v>-0.04131747090872605</v>
       </c>
       <c r="D46">
-        <v>0.08848460266544843</v>
+        <v>-0.07475032086097112</v>
       </c>
       <c r="E46">
-        <v>-0.02158223011658858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04430358012375741</v>
+      </c>
+      <c r="F46">
+        <v>-0.03372817646650917</v>
+      </c>
+      <c r="G46">
+        <v>-0.002660794203525124</v>
+      </c>
+      <c r="H46">
+        <v>0.1290435732470807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07715089780454863</v>
+        <v>0.0311265625018139</v>
       </c>
       <c r="C47">
-        <v>0.1087220527618017</v>
+        <v>-0.127332352713494</v>
       </c>
       <c r="D47">
-        <v>0.05957755833960734</v>
+        <v>-0.02389701196375261</v>
       </c>
       <c r="E47">
-        <v>-0.03336831253643958</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.005978347321631011</v>
+      </c>
+      <c r="F47">
+        <v>0.004466400978952794</v>
+      </c>
+      <c r="G47">
+        <v>0.04847421437307364</v>
+      </c>
+      <c r="H47">
+        <v>0.05297095845482221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007787536826927556</v>
+        <v>0.01252053938737686</v>
       </c>
       <c r="C48">
-        <v>0.01494482982333813</v>
+        <v>-0.03274620999235865</v>
       </c>
       <c r="D48">
-        <v>0.09002984253779422</v>
+        <v>-0.08142871123417739</v>
       </c>
       <c r="E48">
-        <v>-0.05942373619438727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02309883400287877</v>
+      </c>
+      <c r="F48">
+        <v>-0.05918190801660098</v>
+      </c>
+      <c r="G48">
+        <v>0.002296102939267082</v>
+      </c>
+      <c r="H48">
+        <v>0.1056676214466706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03363595016288666</v>
+        <v>0.01188193277225166</v>
       </c>
       <c r="C50">
-        <v>0.05936915631117338</v>
+        <v>-0.07669432019364283</v>
       </c>
       <c r="D50">
-        <v>0.06281774966004867</v>
+        <v>-0.04912756260973141</v>
       </c>
       <c r="E50">
-        <v>-0.0104302642745695</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01395728356694371</v>
+      </c>
+      <c r="F50">
+        <v>-0.0076922275683551</v>
+      </c>
+      <c r="G50">
+        <v>-0.006581076082192568</v>
+      </c>
+      <c r="H50">
+        <v>0.03458076814913928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002420545092776829</v>
+        <v>-0.000951679406400427</v>
       </c>
       <c r="C51">
-        <v>0.004714751502080558</v>
+        <v>-0.01706774755460127</v>
       </c>
       <c r="D51">
-        <v>0.0559029527362776</v>
+        <v>-0.05669577867344238</v>
       </c>
       <c r="E51">
-        <v>-0.006816550849228721</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03906538953667052</v>
+      </c>
+      <c r="F51">
+        <v>-0.04132443465742016</v>
+      </c>
+      <c r="G51">
+        <v>-0.02050651833101354</v>
+      </c>
+      <c r="H51">
+        <v>0.05424742033353275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1056237548659431</v>
+        <v>0.05254458122366081</v>
       </c>
       <c r="C53">
-        <v>0.1272183704310118</v>
+        <v>-0.157732130809394</v>
       </c>
       <c r="D53">
-        <v>0.007533156258984978</v>
+        <v>0.02358697786917565</v>
       </c>
       <c r="E53">
-        <v>-0.06049945943795281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03028950732145377</v>
+      </c>
+      <c r="F53">
+        <v>-0.04840109852191297</v>
+      </c>
+      <c r="G53">
+        <v>0.001348223036723216</v>
+      </c>
+      <c r="H53">
+        <v>0.008982902200939006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.009580827133587638</v>
+        <v>0.009078532567240569</v>
       </c>
       <c r="C54">
-        <v>0.02044461673525344</v>
+        <v>-0.03811479041522477</v>
       </c>
       <c r="D54">
-        <v>0.0921973465117025</v>
+        <v>-0.07787327571410053</v>
       </c>
       <c r="E54">
-        <v>-0.00942730196460779</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01727477302217406</v>
+      </c>
+      <c r="F54">
+        <v>-0.00288716973291628</v>
+      </c>
+      <c r="G54">
+        <v>-0.01357109839117121</v>
+      </c>
+      <c r="H54">
+        <v>0.08046815913725691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09280369189780442</v>
+        <v>0.04002366310988365</v>
       </c>
       <c r="C55">
-        <v>0.1077886616075543</v>
+        <v>-0.1315214029935382</v>
       </c>
       <c r="D55">
-        <v>0.006321402378656221</v>
+        <v>0.03271628874312454</v>
       </c>
       <c r="E55">
-        <v>-0.008986522230794117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004426248930009419</v>
+      </c>
+      <c r="F55">
+        <v>-0.01205686528045766</v>
+      </c>
+      <c r="G55">
+        <v>-0.002030178483409744</v>
+      </c>
+      <c r="H55">
+        <v>0.01605693700974072</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.130722807641064</v>
+        <v>0.05469095545050665</v>
       </c>
       <c r="C56">
-        <v>0.1454202383946009</v>
+        <v>-0.1898258351746113</v>
       </c>
       <c r="D56">
-        <v>0.0001220966494847291</v>
+        <v>0.03429287194220325</v>
       </c>
       <c r="E56">
-        <v>-0.009937025929127733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03194498815968255</v>
+      </c>
+      <c r="F56">
+        <v>-0.01398289408560802</v>
+      </c>
+      <c r="G56">
+        <v>-0.05119059802476169</v>
+      </c>
+      <c r="H56">
+        <v>0.01227333970021326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006705717632750546</v>
+        <v>0.006500004386644451</v>
       </c>
       <c r="C58">
-        <v>0.01052560536571937</v>
+        <v>-0.05595111183611098</v>
       </c>
       <c r="D58">
-        <v>0.2182804713794745</v>
+        <v>-0.2727760903956399</v>
       </c>
       <c r="E58">
-        <v>-0.08496375864244633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02037994168129658</v>
+      </c>
+      <c r="F58">
+        <v>-0.1046133929402162</v>
+      </c>
+      <c r="G58">
+        <v>-0.1403315434057474</v>
+      </c>
+      <c r="H58">
+        <v>-0.08420322763540382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1844309146609764</v>
+        <v>0.2541489065555107</v>
       </c>
       <c r="C59">
-        <v>-0.1443518914579632</v>
+        <v>0.05842698580712029</v>
       </c>
       <c r="D59">
-        <v>0.04459407359264464</v>
+        <v>-0.05637892331758045</v>
       </c>
       <c r="E59">
-        <v>-0.03735808643069551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01937090734202278</v>
+      </c>
+      <c r="F59">
+        <v>-0.0228996771371432</v>
+      </c>
+      <c r="G59">
+        <v>-0.01038102992368544</v>
+      </c>
+      <c r="H59">
+        <v>-0.0003706779800690829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1812954863446905</v>
+        <v>0.1462670369970091</v>
       </c>
       <c r="C60">
-        <v>0.107756230222824</v>
+        <v>-0.175907274635178</v>
       </c>
       <c r="D60">
-        <v>0.208072011010682</v>
+        <v>-0.08461986695142933</v>
       </c>
       <c r="E60">
-        <v>0.1564015223353313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1625835173119197</v>
+      </c>
+      <c r="F60">
+        <v>0.2222166022857249</v>
+      </c>
+      <c r="G60">
+        <v>0.2153253764836749</v>
+      </c>
+      <c r="H60">
+        <v>-0.2416544155771969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0249120814895448</v>
+        <v>0.01081119298046486</v>
       </c>
       <c r="C61">
-        <v>0.05371418696817011</v>
+        <v>-0.07568296563215952</v>
       </c>
       <c r="D61">
-        <v>0.09760320860472793</v>
+        <v>-0.07674328389625829</v>
       </c>
       <c r="E61">
-        <v>0.00177256697038222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.0386766515025405</v>
+      </c>
+      <c r="F61">
+        <v>0.01338567814795283</v>
+      </c>
+      <c r="G61">
+        <v>0.03641759240684026</v>
+      </c>
+      <c r="H61">
+        <v>0.08549418300187969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006061343997453221</v>
+        <v>0.007826975424681653</v>
       </c>
       <c r="C63">
-        <v>0.02451332936523955</v>
+        <v>-0.03722767334600347</v>
       </c>
       <c r="D63">
-        <v>0.09828808127166458</v>
+        <v>-0.06890380325109098</v>
       </c>
       <c r="E63">
-        <v>-0.01884687564095266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.06036870944327545</v>
+      </c>
+      <c r="F63">
+        <v>-0.02584444388223765</v>
+      </c>
+      <c r="G63">
+        <v>0.004625765644736493</v>
+      </c>
+      <c r="H63">
+        <v>0.06798917760700253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05379082450066908</v>
+        <v>0.01540480395485574</v>
       </c>
       <c r="C64">
-        <v>0.08453096815620029</v>
+        <v>-0.1048240573301718</v>
       </c>
       <c r="D64">
-        <v>0.03180787232878226</v>
+        <v>-0.01468823274568531</v>
       </c>
       <c r="E64">
-        <v>-0.01513080453507226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02515629280706315</v>
+      </c>
+      <c r="F64">
+        <v>-0.01763907870951003</v>
+      </c>
+      <c r="G64">
+        <v>0.0531588478278756</v>
+      </c>
+      <c r="H64">
+        <v>0.0793351743318263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02491870447431851</v>
+        <v>0.02133028243036536</v>
       </c>
       <c r="C65">
-        <v>0.01564846232703437</v>
+        <v>-0.04442120850745188</v>
       </c>
       <c r="D65">
-        <v>0.1153962170466302</v>
+        <v>-0.1142788843589692</v>
       </c>
       <c r="E65">
-        <v>-0.01047449436272902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04512843929525021</v>
+      </c>
+      <c r="F65">
+        <v>0.006529249835942851</v>
+      </c>
+      <c r="G65">
+        <v>0.02948006838704993</v>
+      </c>
+      <c r="H65">
+        <v>0.01394952755794447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01929178016926207</v>
+        <v>0.0003776085235804615</v>
       </c>
       <c r="C66">
-        <v>0.06550554474649578</v>
+        <v>-0.09562524068994496</v>
       </c>
       <c r="D66">
-        <v>0.1189731702659063</v>
+        <v>-0.1166218560568816</v>
       </c>
       <c r="E66">
-        <v>0.01353184262252307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04265065980451508</v>
+      </c>
+      <c r="F66">
+        <v>0.01139191984520388</v>
+      </c>
+      <c r="G66">
+        <v>-0.006634888828291542</v>
+      </c>
+      <c r="H66">
+        <v>0.06130992315460051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02354331101981506</v>
+        <v>0.02167787834204848</v>
       </c>
       <c r="C67">
-        <v>0.02003747246275608</v>
+        <v>-0.03498509900056166</v>
       </c>
       <c r="D67">
-        <v>0.04817157136941801</v>
+        <v>-0.04159812039718896</v>
       </c>
       <c r="E67">
-        <v>0.01525925882326126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01218420112527943</v>
+      </c>
+      <c r="F67">
+        <v>0.02690307890700237</v>
+      </c>
+      <c r="G67">
+        <v>-0.0005608729552758902</v>
+      </c>
+      <c r="H67">
+        <v>0.06850877549718114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2069089029033218</v>
+        <v>0.2750473132071662</v>
       </c>
       <c r="C68">
-        <v>-0.1530271002567947</v>
+        <v>0.06551855978749342</v>
       </c>
       <c r="D68">
-        <v>0.03001034913623531</v>
+        <v>-0.02604597446200166</v>
       </c>
       <c r="E68">
-        <v>-0.008908614112042634</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.00394897875726478</v>
+      </c>
+      <c r="F68">
+        <v>-0.02458248912419562</v>
+      </c>
+      <c r="G68">
+        <v>-0.07308844055379826</v>
+      </c>
+      <c r="H68">
+        <v>-0.04767871061164022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05279708398110421</v>
+        <v>0.01602552286120082</v>
       </c>
       <c r="C69">
-        <v>0.1162959952422446</v>
+        <v>-0.1185154673895977</v>
       </c>
       <c r="D69">
-        <v>0.07964602367560339</v>
+        <v>-0.0295866455169647</v>
       </c>
       <c r="E69">
-        <v>-0.01952774794349903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.008787651825183972</v>
+      </c>
+      <c r="F69">
+        <v>0.007524012881612759</v>
+      </c>
+      <c r="G69">
+        <v>0.02786658740435907</v>
+      </c>
+      <c r="H69">
+        <v>0.04419400960318107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2178972691531369</v>
+        <v>0.2765041317003666</v>
       </c>
       <c r="C71">
-        <v>-0.1755416778238702</v>
+        <v>0.07762361313551461</v>
       </c>
       <c r="D71">
-        <v>0.01729703506929049</v>
+        <v>-0.01528961646729777</v>
       </c>
       <c r="E71">
-        <v>-0.01223843600585425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0007627674769314349</v>
+      </c>
+      <c r="F71">
+        <v>-0.02038209711877363</v>
+      </c>
+      <c r="G71">
+        <v>-0.03960725807746621</v>
+      </c>
+      <c r="H71">
+        <v>0.02095075482945452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09982701722575284</v>
+        <v>0.05306372135766667</v>
       </c>
       <c r="C72">
-        <v>0.07960552561168477</v>
+        <v>-0.1261844241539929</v>
       </c>
       <c r="D72">
-        <v>0.1080439721775895</v>
+        <v>-0.0573122425342661</v>
       </c>
       <c r="E72">
-        <v>0.03861290730039326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06833342065637325</v>
+      </c>
+      <c r="F72">
+        <v>0.02379330402627314</v>
+      </c>
+      <c r="G72">
+        <v>0.03680141302305614</v>
+      </c>
+      <c r="H72">
+        <v>0.04495825229533548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.169272315420104</v>
+        <v>0.1377023472427356</v>
       </c>
       <c r="C73">
-        <v>0.07254019309593686</v>
+        <v>-0.1506647322204309</v>
       </c>
       <c r="D73">
-        <v>0.2770790660696969</v>
+        <v>-0.09416460488741124</v>
       </c>
       <c r="E73">
-        <v>0.2316111163302327</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2854809033460062</v>
+      </c>
+      <c r="F73">
+        <v>0.3096477310517915</v>
+      </c>
+      <c r="G73">
+        <v>0.3963024471655694</v>
+      </c>
+      <c r="H73">
+        <v>-0.1859064776124528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1047892099986537</v>
+        <v>0.04744029701763212</v>
       </c>
       <c r="C74">
-        <v>0.1177309023765767</v>
+        <v>-0.1455342368085203</v>
       </c>
       <c r="D74">
-        <v>-0.01976244890377401</v>
+        <v>0.04410583936360641</v>
       </c>
       <c r="E74">
-        <v>-0.03777368359089445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0122537643773309</v>
+      </c>
+      <c r="F74">
+        <v>-0.03512747667833323</v>
+      </c>
+      <c r="G74">
+        <v>0.005995258173860832</v>
+      </c>
+      <c r="H74">
+        <v>-0.01148608265397482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.227236803846424</v>
+        <v>0.1025923205165939</v>
       </c>
       <c r="C75">
-        <v>0.2054015300351457</v>
+        <v>-0.2691345975058615</v>
       </c>
       <c r="D75">
-        <v>-0.105062357090662</v>
+        <v>0.1367665163948106</v>
       </c>
       <c r="E75">
-        <v>0.03014267285296435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09106856116453418</v>
+      </c>
+      <c r="F75">
+        <v>0.02833568583191756</v>
+      </c>
+      <c r="G75">
+        <v>-0.09713681040309735</v>
+      </c>
+      <c r="H75">
+        <v>0.02677789239511911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1373176634266167</v>
+        <v>0.05923926988985168</v>
       </c>
       <c r="C76">
-        <v>0.1420394693113573</v>
+        <v>-0.1832094191636567</v>
       </c>
       <c r="D76">
-        <v>0.01316378733459402</v>
+        <v>0.0410647124495923</v>
       </c>
       <c r="E76">
-        <v>-0.01121274874743997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02292204808330445</v>
+      </c>
+      <c r="F76">
+        <v>-0.002809205760042121</v>
+      </c>
+      <c r="G76">
+        <v>-0.03244300653944897</v>
+      </c>
+      <c r="H76">
+        <v>0.04044094818965126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01991747181113238</v>
+        <v>0.0007877451420814277</v>
       </c>
       <c r="C77">
-        <v>0.06654898739726761</v>
+        <v>-0.1069122148218719</v>
       </c>
       <c r="D77">
-        <v>-0.009189604102386019</v>
+        <v>-0.3268878632240571</v>
       </c>
       <c r="E77">
-        <v>-0.2357640820096435</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8400246114787651</v>
+      </c>
+      <c r="F77">
+        <v>0.217790435800944</v>
+      </c>
+      <c r="G77">
+        <v>0.1933580734276319</v>
+      </c>
+      <c r="H77">
+        <v>-0.1570932264054959</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02605527402519121</v>
+        <v>0.01697142758190942</v>
       </c>
       <c r="C78">
-        <v>0.06983380475943303</v>
+        <v>-0.09196752825562376</v>
       </c>
       <c r="D78">
-        <v>0.1487515981578054</v>
+        <v>-0.1124268598735473</v>
       </c>
       <c r="E78">
-        <v>-0.04756925782964689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06889775654913505</v>
+      </c>
+      <c r="F78">
+        <v>-0.04240931270233984</v>
+      </c>
+      <c r="G78">
+        <v>-0.03504598840856641</v>
+      </c>
+      <c r="H78">
+        <v>0.03292392039746431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0940395661747785</v>
+        <v>0.03359023697929474</v>
       </c>
       <c r="C79">
-        <v>0.178066508575019</v>
+        <v>-0.1943086337677433</v>
       </c>
       <c r="D79">
-        <v>-0.1341530003396394</v>
+        <v>0.07776897864506421</v>
       </c>
       <c r="E79">
-        <v>-0.7949373106662423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05476786820620825</v>
+      </c>
+      <c r="F79">
+        <v>-0.7814570102756089</v>
+      </c>
+      <c r="G79">
+        <v>0.3621779557164369</v>
+      </c>
+      <c r="H79">
+        <v>-0.3364980185191427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002843159746934826</v>
+        <v>0.003312830296766156</v>
       </c>
       <c r="C80">
-        <v>0.04536209487598314</v>
+        <v>-0.04679573010549928</v>
       </c>
       <c r="D80">
-        <v>0.05534640579432624</v>
+        <v>-0.04307392394059502</v>
       </c>
       <c r="E80">
-        <v>0.004559373423757612</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04596404476911811</v>
+      </c>
+      <c r="F80">
+        <v>-0.00484460481642659</v>
+      </c>
+      <c r="G80">
+        <v>-0.008013623624146041</v>
+      </c>
+      <c r="H80">
+        <v>0.0322496774291713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1173842129436334</v>
+        <v>0.04126067340339686</v>
       </c>
       <c r="C81">
-        <v>0.1373575378769865</v>
+        <v>-0.1679721823282296</v>
       </c>
       <c r="D81">
-        <v>-0.07080213924198922</v>
+        <v>0.07880852720149267</v>
       </c>
       <c r="E81">
-        <v>-0.05540863194853652</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05018842234023006</v>
+      </c>
+      <c r="F81">
+        <v>-0.06473522571131597</v>
+      </c>
+      <c r="G81">
+        <v>-0.04821447814290841</v>
+      </c>
+      <c r="H81">
+        <v>0.07996875901787721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2458741389476411</v>
+        <v>0.08664432277799143</v>
       </c>
       <c r="C82">
-        <v>0.3044318898628589</v>
+        <v>-0.321536235130812</v>
       </c>
       <c r="D82">
-        <v>-0.2003458623668243</v>
+        <v>0.2449431529952184</v>
       </c>
       <c r="E82">
-        <v>0.1506684875081883</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06369783793370602</v>
+      </c>
+      <c r="F82">
+        <v>0.1101359712606945</v>
+      </c>
+      <c r="G82">
+        <v>-0.08932817405226716</v>
+      </c>
+      <c r="H82">
+        <v>0.1203102549611517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.007559039703787796</v>
+        <v>-0.0128968819536937</v>
       </c>
       <c r="C83">
-        <v>0.05120840035988934</v>
+        <v>-0.02562475098645243</v>
       </c>
       <c r="D83">
-        <v>-0.002170599021833875</v>
+        <v>-0.02510261231656247</v>
       </c>
       <c r="E83">
-        <v>-0.0579290252144805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07914034137725731</v>
+      </c>
+      <c r="F83">
+        <v>-0.07073176410109414</v>
+      </c>
+      <c r="G83">
+        <v>-0.03783783362858514</v>
+      </c>
+      <c r="H83">
+        <v>0.09430242355411417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00146441622513834</v>
+        <v>-0.0007380272274247886</v>
       </c>
       <c r="C84">
-        <v>-0.0002813164166680715</v>
+        <v>-0.02068858843603009</v>
       </c>
       <c r="D84">
-        <v>0.00909355632710397</v>
+        <v>-0.0494677396008</v>
       </c>
       <c r="E84">
-        <v>0.001875521683815403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005136741927819819</v>
+      </c>
+      <c r="F84">
+        <v>-0.02832345969673763</v>
+      </c>
+      <c r="G84">
+        <v>-0.04579163948568511</v>
+      </c>
+      <c r="H84">
+        <v>0.0203740714889439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1375703846591971</v>
+        <v>0.05461868636265495</v>
       </c>
       <c r="C85">
-        <v>0.1413707338269495</v>
+        <v>-0.1828925602676876</v>
       </c>
       <c r="D85">
-        <v>-0.04173862539982309</v>
+        <v>0.09245914316362426</v>
       </c>
       <c r="E85">
-        <v>-0.02335169976999779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0006020828891846779</v>
+      </c>
+      <c r="F85">
+        <v>-0.0726701299926176</v>
+      </c>
+      <c r="G85">
+        <v>-0.0207287342100872</v>
+      </c>
+      <c r="H85">
+        <v>-0.002416828641964511</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01594486311281368</v>
+        <v>0.0126535275984445</v>
       </c>
       <c r="C86">
-        <v>0.01445192074352947</v>
+        <v>-0.03510892580873749</v>
       </c>
       <c r="D86">
-        <v>0.08513298804795073</v>
+        <v>-0.1021887288586469</v>
       </c>
       <c r="E86">
-        <v>-0.05394040585147406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02096973895051534</v>
+      </c>
+      <c r="F86">
+        <v>0.003568079985030212</v>
+      </c>
+      <c r="G86">
+        <v>0.01958126013983253</v>
+      </c>
+      <c r="H86">
+        <v>0.0207438394133862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01998821505088814</v>
+        <v>0.01282621347009707</v>
       </c>
       <c r="C87">
-        <v>0.02633099510953847</v>
+        <v>-0.06056328148444498</v>
       </c>
       <c r="D87">
-        <v>0.1312197926299314</v>
+        <v>-0.1407426778180571</v>
       </c>
       <c r="E87">
-        <v>-0.05576118148400042</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01657537292636328</v>
+      </c>
+      <c r="F87">
+        <v>-0.03937395699784172</v>
+      </c>
+      <c r="G87">
+        <v>-0.04820365495199121</v>
+      </c>
+      <c r="H87">
+        <v>0.04907759171859547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05140698990357669</v>
+        <v>0.03204263207935085</v>
       </c>
       <c r="C88">
-        <v>0.04547994556089172</v>
+        <v>-0.06884293647919484</v>
       </c>
       <c r="D88">
-        <v>0.03029806423864406</v>
+        <v>-0.01559509720692808</v>
       </c>
       <c r="E88">
-        <v>-0.03198561476095824</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02831062509581326</v>
+      </c>
+      <c r="F88">
+        <v>-0.01999298042011666</v>
+      </c>
+      <c r="G88">
+        <v>0.01476689773314106</v>
+      </c>
+      <c r="H88">
+        <v>0.01598250303759933</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3288712309063501</v>
+        <v>0.4092960881551361</v>
       </c>
       <c r="C89">
-        <v>-0.3200501468895814</v>
+        <v>0.1485267229468512</v>
       </c>
       <c r="D89">
-        <v>0.009931910712496779</v>
+        <v>-0.03059215130509404</v>
       </c>
       <c r="E89">
-        <v>-0.1019772113215659</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0515822811766093</v>
+      </c>
+      <c r="F89">
+        <v>-0.06687677882321658</v>
+      </c>
+      <c r="G89">
+        <v>-0.01238582656648871</v>
+      </c>
+      <c r="H89">
+        <v>0.1150440463440459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2609779434588129</v>
+        <v>0.3220656099909499</v>
       </c>
       <c r="C90">
-        <v>-0.2324091251083329</v>
+        <v>0.1004269349092445</v>
       </c>
       <c r="D90">
-        <v>0.04229025381140524</v>
+        <v>-0.03711606980841667</v>
       </c>
       <c r="E90">
-        <v>0.0112872855266772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01022605920265438</v>
+      </c>
+      <c r="F90">
+        <v>0.008499470032742963</v>
+      </c>
+      <c r="G90">
+        <v>-0.06710466733403592</v>
+      </c>
+      <c r="H90">
+        <v>-0.008767341674802896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1508166628142695</v>
+        <v>0.06426006293279231</v>
       </c>
       <c r="C91">
-        <v>0.1893014528292706</v>
+        <v>-0.2083412331100215</v>
       </c>
       <c r="D91">
-        <v>-0.0941821166962904</v>
+        <v>0.1087116836415399</v>
       </c>
       <c r="E91">
-        <v>-0.0844431645315355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05872741429102808</v>
+      </c>
+      <c r="F91">
+        <v>-0.06992869241130122</v>
+      </c>
+      <c r="G91">
+        <v>-0.003427898684033619</v>
+      </c>
+      <c r="H91">
+        <v>0.0002571257742845873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2463847089060921</v>
+        <v>0.3403133559889022</v>
       </c>
       <c r="C92">
-        <v>-0.2553909961924001</v>
+        <v>0.137216526443935</v>
       </c>
       <c r="D92">
-        <v>-0.05317948252400165</v>
+        <v>-0.005832310189302242</v>
       </c>
       <c r="E92">
-        <v>-0.04408279219808985</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06186212364476543</v>
+      </c>
+      <c r="F92">
+        <v>-0.03171283558704147</v>
+      </c>
+      <c r="G92">
+        <v>-0.02852891751749507</v>
+      </c>
+      <c r="H92">
+        <v>0.01952088589955805</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2869122491421587</v>
+        <v>0.3366226406780771</v>
       </c>
       <c r="C93">
-        <v>-0.2439202051486889</v>
+        <v>0.1091407180778697</v>
       </c>
       <c r="D93">
-        <v>0.01306381148956793</v>
+        <v>0.01895767673972693</v>
       </c>
       <c r="E93">
-        <v>0.001531804778736455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.026149751147875</v>
+      </c>
+      <c r="F93">
+        <v>-0.006768918328445412</v>
+      </c>
+      <c r="G93">
+        <v>0.01718168655090019</v>
+      </c>
+      <c r="H93">
+        <v>-0.004947227133047917</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2842371752044284</v>
+        <v>0.1208859429742558</v>
       </c>
       <c r="C94">
-        <v>0.278218592201735</v>
+        <v>-0.3461863225256345</v>
       </c>
       <c r="D94">
-        <v>-0.3376492194278369</v>
+        <v>0.3622678855119644</v>
       </c>
       <c r="E94">
-        <v>0.224285712626962</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06447496693426755</v>
+      </c>
+      <c r="F94">
+        <v>0.1070310538395556</v>
+      </c>
+      <c r="G94">
+        <v>-0.3215899005013885</v>
+      </c>
+      <c r="H94">
+        <v>-0.02416172418297393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01207371959845147</v>
+        <v>0.01727457109910193</v>
       </c>
       <c r="C95">
-        <v>0.0385351633706521</v>
+        <v>-0.06474442725081364</v>
       </c>
       <c r="D95">
-        <v>0.01340661372680463</v>
+        <v>-0.1081824892414261</v>
       </c>
       <c r="E95">
-        <v>-0.09918215834061722</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1571450488352594</v>
+      </c>
+      <c r="F95">
+        <v>0.01230662041572393</v>
+      </c>
+      <c r="G95">
+        <v>0.09637857162444233</v>
+      </c>
+      <c r="H95">
+        <v>0.3354467646380309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001227951370191433</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000713778835996159</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004925457083065855</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003790989754949268</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003374707920640535</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005669313359902246</v>
+      </c>
+      <c r="H97">
+        <v>0.003944982690447574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1426807156471042</v>
+        <v>0.11334671532936</v>
       </c>
       <c r="C98">
-        <v>0.09295620924383707</v>
+        <v>-0.1557961822117988</v>
       </c>
       <c r="D98">
-        <v>0.1582531401857218</v>
+        <v>-0.06022342865775088</v>
       </c>
       <c r="E98">
-        <v>0.1917523340606299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1977991386919274</v>
+      </c>
+      <c r="F98">
+        <v>0.246510184480175</v>
+      </c>
+      <c r="G98">
+        <v>0.2774455973067147</v>
+      </c>
+      <c r="H98">
+        <v>-0.1939256121017516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00156067418576482</v>
+        <v>0.0008634949916271883</v>
       </c>
       <c r="C101">
-        <v>0.02002957480605651</v>
+        <v>-0.03629688643304691</v>
       </c>
       <c r="D101">
-        <v>0.0962742437031355</v>
+        <v>-0.1030199266002159</v>
       </c>
       <c r="E101">
-        <v>-0.02245660097618594</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05945783121564611</v>
+      </c>
+      <c r="F101">
+        <v>-0.04049825547289982</v>
+      </c>
+      <c r="G101">
+        <v>0.01124991224806188</v>
+      </c>
+      <c r="H101">
+        <v>0.1361184763089077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1025288506994378</v>
+        <v>0.02667553964061773</v>
       </c>
       <c r="C102">
-        <v>0.1617122334417468</v>
+        <v>-0.1488214918939537</v>
       </c>
       <c r="D102">
-        <v>-0.06310099101786283</v>
+        <v>0.100033235951505</v>
       </c>
       <c r="E102">
-        <v>0.05348933384342504</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03871255459844437</v>
+      </c>
+      <c r="F102">
+        <v>0.06444180824905345</v>
+      </c>
+      <c r="G102">
+        <v>0.007738690791645462</v>
+      </c>
+      <c r="H102">
+        <v>0.04799740659540917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
